--- a/nr-heritage-medicationrequest/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/nr-heritage-medicationrequest/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:35+00:00</t>
+    <t>2025-07-21T11:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/nr-heritage-medicationrequest/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:59:07+00:00</t>
+    <t>2025-07-22T07:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
+++ b/nr-heritage-medicationrequest/ig/CodeSystem-medication-ingredient-strength-codes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T07:44:08+00:00</t>
+    <t>2025-07-23T07:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>
